--- a/results/150418-X04a-1506preFPAW-2015-Virginia_States.xlsx
+++ b/results/150418-X04a-1506preFPAW-2015-Virginia_States.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kolja\SkyDrive\Dokumente\Frisbee\Rankings\Turniere-berechnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522410DC-8E3B-40A4-AF02-2557118BE22B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="12510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X04a" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">X04a!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">X04a!#REF!</definedName>
     <definedName name="_X04a">X04a!$T$18:$V$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,14 +29,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
     <author>Kolja</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0" shapeId="0">
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="1" shapeId="0">
+    <comment ref="F15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="2" shapeId="0">
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P16" authorId="2" shapeId="0">
+    <comment ref="P16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q16" authorId="2" shapeId="0">
+    <comment ref="Q16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T17" authorId="2" shapeId="0">
+    <comment ref="T17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U17" authorId="2" shapeId="0">
+    <comment ref="U17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V17" authorId="2" shapeId="0">
+    <comment ref="V17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="1" shapeId="0">
+    <comment ref="F43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="0" shapeId="0">
+    <comment ref="H43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0" shapeId="0">
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="1" shapeId="0">
+    <comment ref="F68" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -467,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H68" authorId="0" shapeId="0">
+    <comment ref="H68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E69" authorId="1" shapeId="0">
+    <comment ref="E69" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -540,9 +541,6 @@
   </si>
   <si>
     <t>Date:</t>
-  </si>
-  <si>
-    <t>18.-19.4.2015</t>
   </si>
   <si>
     <t>Open Pairs</t>
@@ -829,11 +827,14 @@
   <si>
     <t>New Player</t>
   </si>
+  <si>
+    <t>18.4.2015-19.4.2015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2538,181 +2539,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -2722,6 +2583,39 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2730,6 +2624,10 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2738,82 +2636,185 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3119,17 +3120,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle10">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AU88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
@@ -3208,18 +3209,18 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="241" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="243"/>
+      <c r="I2" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="191"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -3249,18 +3250,18 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="234" t="s">
+      <c r="I3" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="229"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="194"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -3300,18 +3301,18 @@
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="244" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="245"/>
-      <c r="K4" s="245"/>
-      <c r="L4" s="245"/>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="246"/>
+      <c r="I4" s="195" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
+      <c r="P4" s="196"/>
+      <c r="Q4" s="196"/>
+      <c r="R4" s="197"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -3319,11 +3320,11 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="22">
         <v>1</v>
@@ -3345,7 +3346,7 @@
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -3353,18 +3354,18 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="234" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="229"/>
+      <c r="I5" s="192" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="193"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="194"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -3372,11 +3373,11 @@
       <c r="W5" s="10"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB5" s="22">
         <v>0</v>
@@ -3398,7 +3399,7 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -3406,18 +3407,18 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="247">
+      <c r="I6" s="198">
         <v>29</v>
       </c>
-      <c r="J6" s="248"/>
-      <c r="K6" s="248"/>
-      <c r="L6" s="248"/>
-      <c r="M6" s="248"/>
-      <c r="N6" s="248"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="248"/>
-      <c r="Q6" s="248"/>
-      <c r="R6" s="249"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="199"/>
+      <c r="L6" s="199"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="199"/>
+      <c r="Q6" s="199"/>
+      <c r="R6" s="200"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -3425,7 +3426,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="21">
@@ -3451,7 +3452,7 @@
     <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -3459,18 +3460,18 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="250">
-        <v>1</v>
-      </c>
-      <c r="J7" s="251"/>
-      <c r="K7" s="251"/>
-      <c r="L7" s="251"/>
-      <c r="M7" s="251"/>
-      <c r="N7" s="251"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="252"/>
+      <c r="I7" s="201">
+        <v>1</v>
+      </c>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="203"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -3478,7 +3479,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="28">
@@ -3504,7 +3505,7 @@
     <row r="8" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -3512,18 +3513,18 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="231"/>
-      <c r="L8" s="231"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
-      <c r="O8" s="231" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="231"/>
-      <c r="R8" s="235"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="205"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="206"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -3531,7 +3532,7 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="21">
@@ -3557,7 +3558,7 @@
     <row r="9" spans="1:35" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -3565,16 +3566,16 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="228"/>
-      <c r="K9" s="228"/>
-      <c r="L9" s="228"/>
-      <c r="M9" s="228"/>
-      <c r="N9" s="228"/>
-      <c r="O9" s="228"/>
-      <c r="P9" s="228"/>
-      <c r="Q9" s="228"/>
-      <c r="R9" s="229"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="194"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -3582,7 +3583,7 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="30">
@@ -3608,7 +3609,7 @@
     <row r="10" spans="1:35" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -3616,16 +3617,16 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="231"/>
-      <c r="K10" s="231"/>
-      <c r="L10" s="231"/>
-      <c r="M10" s="231"/>
-      <c r="N10" s="231"/>
-      <c r="O10" s="232"/>
-      <c r="P10" s="232"/>
-      <c r="Q10" s="232"/>
-      <c r="R10" s="233"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="207"/>
+      <c r="P10" s="207"/>
+      <c r="Q10" s="207"/>
+      <c r="R10" s="208"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -3647,7 +3648,7 @@
     <row r="11" spans="1:35" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -3655,18 +3656,18 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="234" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="228"/>
-      <c r="K11" s="228"/>
-      <c r="L11" s="228"/>
-      <c r="M11" s="228"/>
-      <c r="N11" s="228"/>
-      <c r="O11" s="228"/>
-      <c r="P11" s="228"/>
-      <c r="Q11" s="228"/>
-      <c r="R11" s="229"/>
+      <c r="I11" s="192" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="193"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
+      <c r="M11" s="193"/>
+      <c r="N11" s="193"/>
+      <c r="O11" s="193"/>
+      <c r="P11" s="193"/>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="194"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -3676,7 +3677,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB11" s="36">
         <v>1</v>
@@ -3692,7 +3693,7 @@
     <row r="12" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
@@ -3700,18 +3701,18 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="230">
+      <c r="I12" s="204">
         <v>1705</v>
       </c>
-      <c r="J12" s="231"/>
-      <c r="K12" s="231"/>
-      <c r="L12" s="231"/>
-      <c r="M12" s="231"/>
-      <c r="N12" s="231"/>
-      <c r="O12" s="231"/>
-      <c r="P12" s="231"/>
-      <c r="Q12" s="231"/>
-      <c r="R12" s="235"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="205"/>
+      <c r="L12" s="205"/>
+      <c r="M12" s="205"/>
+      <c r="N12" s="205"/>
+      <c r="O12" s="205"/>
+      <c r="P12" s="205"/>
+      <c r="Q12" s="205"/>
+      <c r="R12" s="206"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -3732,23 +3733,23 @@
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="236"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="237"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="239"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="239"/>
-      <c r="R13" s="240"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="187"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="188"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -3791,7 +3792,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="3"/>
       <c r="W14" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -3802,23 +3803,23 @@
       <c r="AD14" s="6"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG14" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="AG14" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="7"/>
     </row>
     <row r="15" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="46"/>
       <c r="F15" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
@@ -3832,15 +3833,15 @@
       <c r="P15" s="49"/>
       <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
-      <c r="T15" s="194"/>
-      <c r="U15" s="195"/>
-      <c r="V15" s="196"/>
+      <c r="T15" s="209"/>
+      <c r="U15" s="210"/>
+      <c r="V15" s="211"/>
       <c r="W15" s="51">
         <v>8</v>
       </c>
       <c r="X15" s="52"/>
       <c r="Y15" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z15" s="52"/>
       <c r="AA15" s="53"/>
@@ -3850,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH15" s="56">
         <v>1</v>
@@ -3860,76 +3861,76 @@
     <row r="16" spans="1:35" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="61"/>
       <c r="E16" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="G16" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="H16" s="64" t="s">
         <v>35</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>36</v>
       </c>
       <c r="I16" s="65"/>
       <c r="J16" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="O16" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="68" t="s">
+      <c r="R16" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="69" t="s">
+      <c r="S16" s="1"/>
+      <c r="T16" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="188" t="s">
+      <c r="U16" s="213"/>
+      <c r="V16" s="214"/>
+      <c r="W16" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="U16" s="189"/>
-      <c r="V16" s="190"/>
-      <c r="W16" s="70" t="s">
+      <c r="X16" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="X16" s="71" t="s">
+      <c r="Y16" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z16" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="Y16" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z16" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA16" s="73" t="s">
+      <c r="AC16" s="73" t="s">
         <v>42</v>
-      </c>
-      <c r="AB16" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC16" s="73" t="s">
-        <v>43</v>
       </c>
       <c r="AD16" s="6"/>
       <c r="AE16" s="1"/>
@@ -3937,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH16" s="76"/>
       <c r="AI16" s="7"/>
@@ -3963,44 +3964,44 @@
       <c r="R17" s="86"/>
       <c r="S17" s="1"/>
       <c r="T17" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="88" t="s">
+      <c r="V17" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="V17" s="89" t="s">
+      <c r="W17" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="W17" s="90" t="s">
+      <c r="X17" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="X17" s="41" t="s">
+      <c r="Y17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z17" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA17" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="Y17" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="41" t="s">
+      <c r="AB17" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="AA17" s="91" t="s">
+      <c r="AC17" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD17" s="93" t="s">
         <v>49</v>
-      </c>
-      <c r="AB17" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC17" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD17" s="93" t="s">
-        <v>50</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="74">
         <v>1</v>
       </c>
       <c r="AG17" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH17" s="76"/>
       <c r="AI17" s="7"/>
@@ -4009,7 +4010,7 @@
     </row>
     <row r="18" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="191">
+      <c r="B18" s="215">
         <v>1</v>
       </c>
       <c r="C18" s="94">
@@ -4019,10 +4020,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="97">
         <v>5</v>
@@ -4035,16 +4036,16 @@
         <v>125</v>
       </c>
       <c r="K18" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N18" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O18" s="102">
         <v>0</v>
@@ -4055,27 +4056,27 @@
       <c r="Q18" s="104">
         <v>134.5</v>
       </c>
-      <c r="R18" s="187" t="s">
-        <v>52</v>
+      <c r="R18" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U18" s="106">
         <v>134.5</v>
       </c>
       <c r="V18" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W18" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X18" s="109">
         <v>20</v>
       </c>
       <c r="Y18" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z18" s="111">
         <v>9.5</v>
@@ -4090,14 +4091,14 @@
         <v>0</v>
       </c>
       <c r="AD18" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE18" s="116"/>
       <c r="AF18" s="74">
         <v>1</v>
       </c>
       <c r="AG18" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH18" s="76"/>
       <c r="AI18" s="7"/>
@@ -4106,7 +4107,7 @@
     </row>
     <row r="19" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="192"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="117">
         <v>1</v>
       </c>
@@ -4114,10 +4115,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="120">
         <v>4</v>
@@ -4130,16 +4131,16 @@
         <v>125</v>
       </c>
       <c r="K19" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L19" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N19" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O19" s="124">
         <v>0</v>
@@ -4150,23 +4151,23 @@
       <c r="Q19" s="126">
         <v>134.5</v>
       </c>
-      <c r="R19" s="187"/>
+      <c r="R19" s="218"/>
       <c r="S19" s="1"/>
       <c r="T19" s="127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U19" s="128">
         <v>134.5</v>
       </c>
       <c r="V19" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W19" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X19" s="130"/>
       <c r="Y19" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z19" s="111">
         <v>9.5</v>
@@ -4177,14 +4178,14 @@
       </c>
       <c r="AC19" s="131"/>
       <c r="AD19" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE19" s="116"/>
       <c r="AF19" s="74">
         <v>1</v>
       </c>
       <c r="AG19" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH19" s="76"/>
       <c r="AI19" s="7"/>
@@ -4193,7 +4194,7 @@
     </row>
     <row r="20" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="193"/>
+      <c r="B20" s="217"/>
       <c r="C20" s="132">
         <v>1</v>
       </c>
@@ -4202,56 +4203,56 @@
       </c>
       <c r="E20" s="133"/>
       <c r="F20" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="99"/>
       <c r="J20" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L20" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M20" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N20" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O20" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P20" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R20" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R20" s="218"/>
       <c r="S20" s="1"/>
       <c r="T20" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U20" s="106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V20" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W20" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X20" s="142"/>
       <c r="Y20" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z20" s="111">
         <v>9.5</v>
@@ -4262,14 +4263,14 @@
       </c>
       <c r="AC20" s="143"/>
       <c r="AD20" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE20" s="116"/>
       <c r="AF20" s="74">
         <v>1</v>
       </c>
       <c r="AG20" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH20" s="76"/>
       <c r="AI20" s="7"/>
@@ -4278,7 +4279,7 @@
     </row>
     <row r="21" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="191">
+      <c r="B21" s="215">
         <v>2</v>
       </c>
       <c r="C21" s="94">
@@ -4288,10 +4289,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="97">
         <v>94</v>
@@ -4304,16 +4305,16 @@
         <v>100</v>
       </c>
       <c r="K21" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L21" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N21" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O21" s="102">
         <v>0.5</v>
@@ -4324,27 +4325,27 @@
       <c r="Q21" s="104">
         <v>106</v>
       </c>
-      <c r="R21" s="187" t="s">
-        <v>52</v>
+      <c r="R21" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U21" s="128">
         <v>106</v>
       </c>
       <c r="V21" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W21" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X21" s="109">
         <v>4</v>
       </c>
       <c r="Y21" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z21" s="111">
         <v>5.5</v>
@@ -4359,14 +4360,14 @@
         <v>0</v>
       </c>
       <c r="AD21" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE21" s="116"/>
       <c r="AF21" s="74">
         <v>1</v>
       </c>
       <c r="AG21" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH21" s="76"/>
       <c r="AI21" s="7"/>
@@ -4375,7 +4376,7 @@
     </row>
     <row r="22" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="192"/>
+      <c r="B22" s="216"/>
       <c r="C22" s="117">
         <v>2</v>
       </c>
@@ -4383,10 +4384,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="120">
         <v>119</v>
@@ -4399,16 +4400,16 @@
         <v>100</v>
       </c>
       <c r="K22" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L22" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M22" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N22" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O22" s="124">
         <v>0.5</v>
@@ -4419,23 +4420,23 @@
       <c r="Q22" s="126">
         <v>106</v>
       </c>
-      <c r="R22" s="187"/>
+      <c r="R22" s="218"/>
       <c r="S22" s="1"/>
       <c r="T22" s="105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" s="106">
         <v>106</v>
       </c>
       <c r="V22" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W22" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X22" s="130"/>
       <c r="Y22" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z22" s="111">
         <v>5.5</v>
@@ -4446,14 +4447,14 @@
       </c>
       <c r="AC22" s="131"/>
       <c r="AD22" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE22" s="116"/>
       <c r="AF22" s="74">
         <v>1</v>
       </c>
       <c r="AG22" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH22" s="76"/>
       <c r="AI22" s="7"/>
@@ -4462,7 +4463,7 @@
     </row>
     <row r="23" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="193"/>
+      <c r="B23" s="217"/>
       <c r="C23" s="132">
         <v>2</v>
       </c>
@@ -4470,10 +4471,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="135">
         <v>36</v>
@@ -4486,16 +4487,16 @@
         <v>100</v>
       </c>
       <c r="K23" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L23" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N23" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23" s="139">
         <v>0.5</v>
@@ -4506,23 +4507,23 @@
       <c r="Q23" s="141">
         <v>106</v>
       </c>
-      <c r="R23" s="187"/>
+      <c r="R23" s="218"/>
       <c r="S23" s="1"/>
       <c r="T23" s="127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U23" s="128">
         <v>106</v>
       </c>
       <c r="V23" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W23" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X23" s="142"/>
       <c r="Y23" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z23" s="111">
         <v>5.5</v>
@@ -4533,14 +4534,14 @@
       </c>
       <c r="AC23" s="143"/>
       <c r="AD23" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE23" s="116"/>
       <c r="AF23" s="74">
         <v>1</v>
       </c>
       <c r="AG23" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH23" s="76"/>
       <c r="AI23" s="7"/>
@@ -4549,7 +4550,7 @@
     </row>
     <row r="24" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="184">
+      <c r="B24" s="219">
         <v>3</v>
       </c>
       <c r="C24" s="94">
@@ -4559,13 +4560,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="98">
         <v>0</v>
@@ -4575,16 +4576,16 @@
         <v>80</v>
       </c>
       <c r="K24" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L24" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M24" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N24" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O24" s="102">
         <v>0.5</v>
@@ -4595,27 +4596,27 @@
       <c r="Q24" s="104">
         <v>86</v>
       </c>
-      <c r="R24" s="187" t="s">
-        <v>52</v>
+      <c r="R24" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U24" s="106">
         <v>86</v>
       </c>
       <c r="V24" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W24" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X24" s="109">
         <v>0</v>
       </c>
       <c r="Y24" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z24" s="111">
         <v>5.5</v>
@@ -4630,14 +4631,14 @@
         <v>0</v>
       </c>
       <c r="AD24" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE24" s="116"/>
       <c r="AF24" s="74">
         <v>1</v>
       </c>
       <c r="AG24" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH24" s="76"/>
       <c r="AI24" s="7"/>
@@ -4646,7 +4647,7 @@
     </row>
     <row r="25" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="185"/>
+      <c r="B25" s="220"/>
       <c r="C25" s="117">
         <v>3</v>
       </c>
@@ -4654,13 +4655,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="121">
         <v>0</v>
@@ -4670,16 +4671,16 @@
         <v>80</v>
       </c>
       <c r="K25" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L25" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M25" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N25" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O25" s="124">
         <v>0.5</v>
@@ -4690,23 +4691,23 @@
       <c r="Q25" s="126">
         <v>86</v>
       </c>
-      <c r="R25" s="187"/>
+      <c r="R25" s="218"/>
       <c r="S25" s="1"/>
       <c r="T25" s="127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U25" s="128">
         <v>86</v>
       </c>
       <c r="V25" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W25" s="108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X25" s="130"/>
       <c r="Y25" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z25" s="111">
         <v>5.5</v>
@@ -4717,14 +4718,14 @@
       </c>
       <c r="AC25" s="131"/>
       <c r="AD25" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE25" s="116"/>
       <c r="AF25" s="74">
         <v>1</v>
       </c>
       <c r="AG25" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH25" s="76"/>
       <c r="AI25" s="7"/>
@@ -4733,7 +4734,7 @@
     </row>
     <row r="26" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="186"/>
+      <c r="B26" s="221"/>
       <c r="C26" s="132">
         <v>3</v>
       </c>
@@ -4741,13 +4742,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="135" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" s="136">
         <v>0</v>
@@ -4757,16 +4758,16 @@
         <v>40</v>
       </c>
       <c r="K26" s="145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L26" s="145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M26" s="145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N26" s="145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="146">
         <v>0.5</v>
@@ -4777,23 +4778,23 @@
       <c r="Q26" s="141">
         <v>40.5</v>
       </c>
-      <c r="R26" s="187"/>
+      <c r="R26" s="218"/>
       <c r="S26" s="1"/>
       <c r="T26" s="105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U26" s="106">
         <v>40.5</v>
       </c>
       <c r="V26" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W26" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X26" s="142"/>
       <c r="Y26" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z26" s="111">
         <v>5.5</v>
@@ -4804,25 +4805,25 @@
       </c>
       <c r="AC26" s="143"/>
       <c r="AD26" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE26" s="116"/>
       <c r="AF26" s="74">
         <v>1</v>
       </c>
       <c r="AG26" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH26" s="76"/>
       <c r="AI26" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="184">
+      <c r="B27" s="219">
         <v>4</v>
       </c>
       <c r="C27" s="94">
@@ -4832,10 +4833,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="97">
         <v>125</v>
@@ -4848,16 +4849,16 @@
         <v>70</v>
       </c>
       <c r="K27" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L27" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M27" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N27" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="102">
         <v>0</v>
@@ -4868,27 +4869,27 @@
       <c r="Q27" s="104">
         <v>74.5</v>
       </c>
-      <c r="R27" s="187" t="s">
-        <v>52</v>
+      <c r="R27" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U27" s="128">
         <v>74.5</v>
       </c>
       <c r="V27" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W27" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X27" s="109">
         <v>1</v>
       </c>
       <c r="Y27" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z27" s="111">
         <v>4.5</v>
@@ -4903,14 +4904,14 @@
         <v>0</v>
       </c>
       <c r="AD27" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE27" s="116"/>
       <c r="AF27" s="74">
         <v>1</v>
       </c>
       <c r="AG27" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH27" s="76"/>
       <c r="AI27" s="7"/>
@@ -4919,7 +4920,7 @@
     </row>
     <row r="28" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="185"/>
+      <c r="B28" s="220"/>
       <c r="C28" s="117">
         <v>4</v>
       </c>
@@ -4927,13 +4928,13 @@
         <v>4</v>
       </c>
       <c r="E28" s="118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="121">
         <v>0.5</v>
@@ -4943,16 +4944,16 @@
         <v>70</v>
       </c>
       <c r="K28" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L28" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M28" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N28" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="124">
         <v>0</v>
@@ -4963,23 +4964,23 @@
       <c r="Q28" s="126">
         <v>74.5</v>
       </c>
-      <c r="R28" s="187"/>
+      <c r="R28" s="218"/>
       <c r="S28" s="1"/>
       <c r="T28" s="105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U28" s="106">
         <v>74.5</v>
       </c>
       <c r="V28" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W28" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X28" s="130"/>
       <c r="Y28" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z28" s="111">
         <v>4.5</v>
@@ -4990,14 +4991,14 @@
       </c>
       <c r="AC28" s="131"/>
       <c r="AD28" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE28" s="116"/>
       <c r="AF28" s="74">
         <v>1</v>
       </c>
       <c r="AG28" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH28" s="76"/>
       <c r="AI28" s="7"/>
@@ -5006,7 +5007,7 @@
     </row>
     <row r="29" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="186"/>
+      <c r="B29" s="221"/>
       <c r="C29" s="132">
         <v>4</v>
       </c>
@@ -5014,10 +5015,10 @@
         <v>4</v>
       </c>
       <c r="E29" s="133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="135">
         <v>222</v>
@@ -5030,16 +5031,16 @@
         <v>40</v>
       </c>
       <c r="K29" s="145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L29" s="145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M29" s="145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N29" s="145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="146">
         <v>0</v>
@@ -5050,23 +5051,23 @@
       <c r="Q29" s="141">
         <v>40</v>
       </c>
-      <c r="R29" s="187"/>
+      <c r="R29" s="218"/>
       <c r="S29" s="1"/>
       <c r="T29" s="127" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U29" s="128">
         <v>40</v>
       </c>
       <c r="V29" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W29" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X29" s="142"/>
       <c r="Y29" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z29" s="111">
         <v>4.5</v>
@@ -5077,25 +5078,25 @@
       </c>
       <c r="AC29" s="143"/>
       <c r="AD29" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE29" s="116"/>
       <c r="AF29" s="74">
         <v>1</v>
       </c>
       <c r="AG29" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH29" s="76"/>
       <c r="AI29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="184">
+      <c r="B30" s="219">
         <v>5</v>
       </c>
       <c r="C30" s="94">
@@ -5105,10 +5106,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" s="97">
         <v>76</v>
@@ -5121,16 +5122,16 @@
         <v>60</v>
       </c>
       <c r="K30" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L30" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M30" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N30" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O30" s="102">
         <v>0.5</v>
@@ -5141,12 +5142,12 @@
       <c r="Q30" s="104">
         <v>63.5</v>
       </c>
-      <c r="R30" s="187" t="s">
-        <v>52</v>
+      <c r="R30" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U30" s="106">
         <v>63.5</v>
@@ -5155,13 +5156,13 @@
         <v>60</v>
       </c>
       <c r="W30" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X30" s="109">
         <v>1.5</v>
       </c>
       <c r="Y30" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z30" s="111">
         <v>3</v>
@@ -5176,14 +5177,14 @@
         <v>0</v>
       </c>
       <c r="AD30" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE30" s="116"/>
       <c r="AF30" s="74">
         <v>1</v>
       </c>
       <c r="AG30" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH30" s="76"/>
       <c r="AI30" s="7"/>
@@ -5192,7 +5193,7 @@
     </row>
     <row r="31" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="185"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="117">
         <v>5</v>
       </c>
@@ -5200,10 +5201,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G31" s="120">
         <v>197</v>
@@ -5216,16 +5217,16 @@
         <v>60</v>
       </c>
       <c r="K31" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L31" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M31" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N31" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O31" s="124">
         <v>0.5</v>
@@ -5236,10 +5237,10 @@
       <c r="Q31" s="126">
         <v>63.5</v>
       </c>
-      <c r="R31" s="187"/>
+      <c r="R31" s="218"/>
       <c r="S31" s="1"/>
       <c r="T31" s="127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U31" s="128">
         <v>63.5</v>
@@ -5248,11 +5249,11 @@
         <v>60</v>
       </c>
       <c r="W31" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X31" s="130"/>
       <c r="Y31" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z31" s="111">
         <v>3</v>
@@ -5263,14 +5264,14 @@
       </c>
       <c r="AC31" s="131"/>
       <c r="AD31" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE31" s="116"/>
       <c r="AF31" s="74">
         <v>1</v>
       </c>
       <c r="AG31" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH31" s="76"/>
       <c r="AI31" s="7"/>
@@ -5279,7 +5280,7 @@
     </row>
     <row r="32" spans="1:37" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="186"/>
+      <c r="B32" s="221"/>
       <c r="C32" s="132">
         <v>5</v>
       </c>
@@ -5288,56 +5289,56 @@
       </c>
       <c r="E32" s="133"/>
       <c r="F32" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H32" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I32" s="99"/>
       <c r="J32" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L32" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M32" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N32" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O32" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P32" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q32" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R32" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R32" s="218"/>
       <c r="S32" s="1"/>
       <c r="T32" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U32" s="106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V32" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W32" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X32" s="142"/>
       <c r="Y32" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z32" s="111">
         <v>3</v>
@@ -5348,14 +5349,14 @@
       </c>
       <c r="AC32" s="143"/>
       <c r="AD32" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE32" s="116"/>
       <c r="AF32" s="74">
         <v>1</v>
       </c>
       <c r="AG32" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH32" s="76"/>
       <c r="AI32" s="7"/>
@@ -5364,7 +5365,7 @@
     </row>
     <row r="33" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="225">
+      <c r="B33" s="222">
         <v>6</v>
       </c>
       <c r="C33" s="94">
@@ -5374,10 +5375,10 @@
         <v>6</v>
       </c>
       <c r="E33" s="95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="97">
         <v>169</v>
@@ -5390,16 +5391,16 @@
         <v>50</v>
       </c>
       <c r="K33" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L33" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M33" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N33" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O33" s="102">
         <v>0</v>
@@ -5410,27 +5411,27 @@
       <c r="Q33" s="104">
         <v>51</v>
       </c>
-      <c r="R33" s="187" t="s">
-        <v>52</v>
+      <c r="R33" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="127" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U33" s="128">
         <v>51</v>
       </c>
       <c r="V33" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W33" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X33" s="109">
         <v>1</v>
       </c>
       <c r="Y33" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z33" s="111">
         <v>1</v>
@@ -5445,14 +5446,14 @@
         <v>0</v>
       </c>
       <c r="AD33" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE33" s="116"/>
       <c r="AF33" s="74">
         <v>1</v>
       </c>
       <c r="AG33" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH33" s="76"/>
       <c r="AI33" s="7"/>
@@ -5463,7 +5464,7 @@
     </row>
     <row r="34" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="226"/>
+      <c r="B34" s="223"/>
       <c r="C34" s="117">
         <v>6</v>
       </c>
@@ -5471,10 +5472,10 @@
         <v>6</v>
       </c>
       <c r="E34" s="118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="120">
         <v>220</v>
@@ -5487,16 +5488,16 @@
         <v>50</v>
       </c>
       <c r="K34" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L34" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M34" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N34" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O34" s="124">
         <v>0</v>
@@ -5507,23 +5508,23 @@
       <c r="Q34" s="126">
         <v>51</v>
       </c>
-      <c r="R34" s="187"/>
+      <c r="R34" s="218"/>
       <c r="S34" s="1"/>
       <c r="T34" s="105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U34" s="106">
         <v>51</v>
       </c>
       <c r="V34" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W34" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X34" s="130"/>
       <c r="Y34" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z34" s="111">
         <v>1</v>
@@ -5534,14 +5535,14 @@
       </c>
       <c r="AC34" s="131"/>
       <c r="AD34" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE34" s="116"/>
       <c r="AF34" s="74">
         <v>1</v>
       </c>
       <c r="AG34" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH34" s="76"/>
       <c r="AI34" s="7"/>
@@ -5552,7 +5553,7 @@
     </row>
     <row r="35" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="227"/>
+      <c r="B35" s="224"/>
       <c r="C35" s="132">
         <v>6</v>
       </c>
@@ -5560,10 +5561,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" s="135">
         <v>165</v>
@@ -5576,16 +5577,16 @@
         <v>50</v>
       </c>
       <c r="K35" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L35" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M35" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N35" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O35" s="139">
         <v>0</v>
@@ -5596,23 +5597,23 @@
       <c r="Q35" s="141">
         <v>51</v>
       </c>
-      <c r="R35" s="187"/>
+      <c r="R35" s="218"/>
       <c r="S35" s="1"/>
       <c r="T35" s="127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U35" s="128">
         <v>51</v>
       </c>
       <c r="V35" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W35" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X35" s="142"/>
       <c r="Y35" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z35" s="111">
         <v>1</v>
@@ -5623,14 +5624,14 @@
       </c>
       <c r="AC35" s="143"/>
       <c r="AD35" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE35" s="116"/>
       <c r="AF35" s="74">
         <v>1</v>
       </c>
       <c r="AG35" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH35" s="76"/>
       <c r="AI35" s="7"/>
@@ -5641,7 +5642,7 @@
     </row>
     <row r="36" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="225">
+      <c r="B36" s="222">
         <v>6</v>
       </c>
       <c r="C36" s="94">
@@ -5651,10 +5652,10 @@
         <v>6</v>
       </c>
       <c r="E36" s="95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="97">
         <v>240</v>
@@ -5667,16 +5668,16 @@
         <v>50</v>
       </c>
       <c r="K36" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L36" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M36" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N36" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O36" s="102">
         <v>0</v>
@@ -5687,27 +5688,27 @@
       <c r="Q36" s="104">
         <v>51</v>
       </c>
-      <c r="R36" s="187" t="s">
-        <v>70</v>
+      <c r="R36" s="218" t="s">
+        <v>69</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U36" s="106">
         <v>51</v>
       </c>
       <c r="V36" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W36" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X36" s="109">
         <v>1</v>
       </c>
       <c r="Y36" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z36" s="111">
         <v>1</v>
@@ -5722,14 +5723,14 @@
         <v>0</v>
       </c>
       <c r="AD36" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE36" s="116"/>
       <c r="AF36" s="74">
         <v>1</v>
       </c>
       <c r="AG36" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH36" s="76"/>
       <c r="AI36" s="7"/>
@@ -5740,7 +5741,7 @@
     </row>
     <row r="37" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="226"/>
+      <c r="B37" s="223"/>
       <c r="C37" s="117">
         <v>6</v>
       </c>
@@ -5748,10 +5749,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="120">
         <v>98</v>
@@ -5764,16 +5765,16 @@
         <v>50</v>
       </c>
       <c r="K37" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L37" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M37" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N37" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O37" s="124">
         <v>0</v>
@@ -5784,23 +5785,23 @@
       <c r="Q37" s="126">
         <v>51</v>
       </c>
-      <c r="R37" s="187"/>
+      <c r="R37" s="218"/>
       <c r="S37" s="1"/>
       <c r="T37" s="127" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U37" s="128">
         <v>51</v>
       </c>
       <c r="V37" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W37" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X37" s="130"/>
       <c r="Y37" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z37" s="111">
         <v>1</v>
@@ -5811,14 +5812,14 @@
       </c>
       <c r="AC37" s="131"/>
       <c r="AD37" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE37" s="116"/>
       <c r="AF37" s="74">
         <v>1</v>
       </c>
       <c r="AG37" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH37" s="76"/>
       <c r="AI37" s="7"/>
@@ -5829,7 +5830,7 @@
     </row>
     <row r="38" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="227"/>
+      <c r="B38" s="224"/>
       <c r="C38" s="132">
         <v>6</v>
       </c>
@@ -5838,56 +5839,56 @@
       </c>
       <c r="E38" s="133"/>
       <c r="F38" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H38" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I38" s="99"/>
       <c r="J38" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K38" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L38" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M38" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N38" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O38" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P38" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q38" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R38" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R38" s="218"/>
       <c r="S38" s="1"/>
       <c r="T38" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U38" s="106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V38" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W38" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X38" s="142"/>
       <c r="Y38" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z38" s="111">
         <v>1</v>
@@ -5898,14 +5899,14 @@
       </c>
       <c r="AC38" s="143"/>
       <c r="AD38" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE38" s="116"/>
       <c r="AF38" s="74">
         <v>1</v>
       </c>
       <c r="AG38" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH38" s="76"/>
       <c r="AI38" s="7"/>
@@ -5916,7 +5917,7 @@
     </row>
     <row r="39" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="184">
+      <c r="B39" s="219">
         <v>8</v>
       </c>
       <c r="C39" s="94">
@@ -5926,13 +5927,13 @@
         <v>8</v>
       </c>
       <c r="E39" s="95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G39" s="97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" s="98">
         <v>0.5</v>
@@ -5942,16 +5943,16 @@
         <v>40</v>
       </c>
       <c r="K39" s="148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L39" s="148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M39" s="148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N39" s="148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O39" s="149">
         <v>0.5</v>
@@ -5962,27 +5963,27 @@
       <c r="Q39" s="104">
         <v>40.5</v>
       </c>
-      <c r="R39" s="187" t="s">
-        <v>52</v>
+      <c r="R39" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U39" s="128">
         <v>40.5</v>
       </c>
       <c r="V39" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W39" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X39" s="109">
         <v>1</v>
       </c>
       <c r="Y39" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z39" s="111">
         <v>0</v>
@@ -5997,18 +5998,18 @@
         <v>0</v>
       </c>
       <c r="AD39" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE39" s="116"/>
       <c r="AF39" s="74">
         <v>1</v>
       </c>
       <c r="AG39" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH39" s="76"/>
       <c r="AI39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -6017,7 +6018,7 @@
     </row>
     <row r="40" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="185"/>
+      <c r="B40" s="220"/>
       <c r="C40" s="117">
         <v>8</v>
       </c>
@@ -6025,13 +6026,13 @@
         <v>8</v>
       </c>
       <c r="E40" s="118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G40" s="120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H40" s="121">
         <v>0.5</v>
@@ -6041,16 +6042,16 @@
         <v>40</v>
       </c>
       <c r="K40" s="151" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L40" s="151" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M40" s="151" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N40" s="151" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O40" s="152">
         <v>0.5</v>
@@ -6061,23 +6062,23 @@
       <c r="Q40" s="126">
         <v>40.5</v>
       </c>
-      <c r="R40" s="187"/>
+      <c r="R40" s="218"/>
       <c r="S40" s="1"/>
       <c r="T40" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U40" s="106">
         <v>40.5</v>
       </c>
       <c r="V40" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W40" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X40" s="130"/>
       <c r="Y40" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z40" s="111">
         <v>0</v>
@@ -6088,18 +6089,18 @@
       </c>
       <c r="AC40" s="131"/>
       <c r="AD40" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE40" s="116"/>
       <c r="AF40" s="74">
         <v>1</v>
       </c>
       <c r="AG40" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH40" s="76"/>
       <c r="AI40" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -6108,7 +6109,7 @@
     </row>
     <row r="41" spans="1:47" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="186"/>
+      <c r="B41" s="221"/>
       <c r="C41" s="132">
         <v>8</v>
       </c>
@@ -6117,56 +6118,56 @@
       </c>
       <c r="E41" s="133"/>
       <c r="F41" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H41" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I41" s="99"/>
       <c r="J41" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K41" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L41" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M41" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N41" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O41" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P41" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q41" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R41" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R41" s="218"/>
       <c r="S41" s="1"/>
       <c r="T41" s="127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U41" s="128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V41" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W41" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X41" s="142"/>
       <c r="Y41" s="110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z41" s="111">
         <v>0</v>
@@ -6177,14 +6178,14 @@
       </c>
       <c r="AC41" s="143"/>
       <c r="AD41" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE41" s="116"/>
       <c r="AF41" s="74">
         <v>1</v>
       </c>
       <c r="AG41" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH41" s="76"/>
       <c r="AI41" s="7"/>
@@ -6211,7 +6212,7 @@
       <c r="P42" s="161"/>
       <c r="Q42" s="162"/>
       <c r="W42" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
@@ -6239,17 +6240,17 @@
     </row>
     <row r="43" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="164"/>
       <c r="D43" s="164"/>
       <c r="E43" s="46"/>
       <c r="F43" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G43" s="46"/>
       <c r="H43" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I43" s="48"/>
       <c r="J43" s="49"/>
@@ -6262,15 +6263,15 @@
       <c r="Q43" s="50"/>
       <c r="R43" s="50"/>
       <c r="S43" s="43"/>
-      <c r="T43" s="194"/>
-      <c r="U43" s="195"/>
-      <c r="V43" s="215"/>
+      <c r="T43" s="209"/>
+      <c r="U43" s="210"/>
+      <c r="V43" s="234"/>
       <c r="W43" s="165">
         <v>6</v>
       </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z43" s="111">
         <v>0</v>
@@ -6282,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="AG43" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH43" s="56">
         <v>2</v>
@@ -6299,61 +6300,61 @@
       <c r="AU43"/>
     </row>
     <row r="44" spans="1:47" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="216" t="s">
-        <v>32</v>
+      <c r="B44" s="235" t="s">
+        <v>31</v>
       </c>
       <c r="C44" s="167"/>
       <c r="D44" s="167"/>
-      <c r="E44" s="219" t="s">
+      <c r="E44" s="238" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="241" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="197" t="s">
+      <c r="G44" s="241" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="197" t="s">
+      <c r="H44" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="224" t="s">
+      <c r="I44" s="168"/>
+      <c r="J44" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="I44" s="168"/>
-      <c r="J44" s="216" t="s">
+      <c r="K44" s="241" t="s">
+        <v>86</v>
+      </c>
+      <c r="L44" s="241" t="s">
+        <v>86</v>
+      </c>
+      <c r="M44" s="241" t="s">
+        <v>86</v>
+      </c>
+      <c r="N44" s="241" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" s="241" t="s">
+        <v>87</v>
+      </c>
+      <c r="P44" s="241" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q44" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="K44" s="197" t="s">
-        <v>87</v>
-      </c>
-      <c r="L44" s="197" t="s">
-        <v>87</v>
-      </c>
-      <c r="M44" s="197" t="s">
-        <v>87</v>
-      </c>
-      <c r="N44" s="197" t="s">
-        <v>87</v>
-      </c>
-      <c r="O44" s="197" t="s">
-        <v>88</v>
-      </c>
-      <c r="P44" s="197" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q44" s="200" t="s">
+      <c r="R44" s="250" t="s">
         <v>38</v>
       </c>
-      <c r="R44" s="203" t="s">
+      <c r="S44" s="43"/>
+      <c r="T44" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="S44" s="43"/>
-      <c r="T44" s="206" t="s">
-        <v>40</v>
-      </c>
-      <c r="U44" s="207"/>
-      <c r="V44" s="208"/>
+      <c r="U44" s="226"/>
+      <c r="V44" s="227"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z44" s="111">
         <v>0</v>
@@ -6365,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AG44" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH44" s="76"/>
       <c r="AI44" s="7"/>
@@ -6379,43 +6380,43 @@
       <c r="AU44"/>
     </row>
     <row r="45" spans="1:47" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="217"/>
+      <c r="B45" s="236"/>
       <c r="C45" s="169"/>
       <c r="D45" s="169"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="222"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="201"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="242"/>
+      <c r="G45" s="239"/>
+      <c r="H45" s="245"/>
       <c r="I45" s="168"/>
-      <c r="J45" s="217"/>
-      <c r="K45" s="198" t="s">
+      <c r="J45" s="236"/>
+      <c r="K45" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="L45" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="M45" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="N45" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="O45" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="L45" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="M45" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="N45" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="O45" s="198" t="s">
-        <v>88</v>
-      </c>
-      <c r="P45" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q45" s="201"/>
-      <c r="R45" s="204"/>
+      <c r="P45" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q45" s="245"/>
+      <c r="R45" s="251"/>
       <c r="S45" s="43"/>
-      <c r="T45" s="209"/>
-      <c r="U45" s="210"/>
-      <c r="V45" s="211"/>
+      <c r="T45" s="228"/>
+      <c r="U45" s="229"/>
+      <c r="V45" s="230"/>
       <c r="W45" s="3"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z45" s="111">
         <v>0</v>
@@ -6427,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="AG45" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH45" s="76"/>
       <c r="AI45" s="7"/>
@@ -6441,43 +6442,43 @@
       <c r="AU45"/>
     </row>
     <row r="46" spans="1:47" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="217"/>
+      <c r="B46" s="236"/>
       <c r="C46" s="169"/>
       <c r="D46" s="169"/>
-      <c r="E46" s="220"/>
-      <c r="F46" s="222"/>
-      <c r="G46" s="220"/>
-      <c r="H46" s="201"/>
+      <c r="E46" s="239"/>
+      <c r="F46" s="242"/>
+      <c r="G46" s="239"/>
+      <c r="H46" s="245"/>
       <c r="I46" s="168"/>
-      <c r="J46" s="217"/>
-      <c r="K46" s="198" t="s">
+      <c r="J46" s="236"/>
+      <c r="K46" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="L46" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="N46" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="O46" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="L46" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="M46" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="N46" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="O46" s="198" t="s">
-        <v>88</v>
-      </c>
-      <c r="P46" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q46" s="201"/>
-      <c r="R46" s="204"/>
+      <c r="P46" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q46" s="245"/>
+      <c r="R46" s="251"/>
       <c r="S46" s="43"/>
-      <c r="T46" s="209"/>
-      <c r="U46" s="210"/>
-      <c r="V46" s="211"/>
+      <c r="T46" s="228"/>
+      <c r="U46" s="229"/>
+      <c r="V46" s="230"/>
       <c r="W46" s="3"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z46" s="111">
         <v>0</v>
@@ -6489,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="AG46" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH46" s="76"/>
       <c r="AI46" s="7"/>
@@ -6503,42 +6504,42 @@
       <c r="AU46"/>
     </row>
     <row r="47" spans="1:47" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="218"/>
+      <c r="B47" s="237"/>
       <c r="C47" s="170"/>
       <c r="D47" s="170"/>
-      <c r="E47" s="221"/>
-      <c r="F47" s="223"/>
-      <c r="G47" s="221"/>
-      <c r="H47" s="202"/>
+      <c r="E47" s="240"/>
+      <c r="F47" s="243"/>
+      <c r="G47" s="240"/>
+      <c r="H47" s="246"/>
       <c r="I47" s="65"/>
-      <c r="J47" s="218"/>
-      <c r="K47" s="199" t="s">
+      <c r="J47" s="237"/>
+      <c r="K47" s="248" t="s">
+        <v>86</v>
+      </c>
+      <c r="L47" s="248" t="s">
+        <v>86</v>
+      </c>
+      <c r="M47" s="248" t="s">
+        <v>86</v>
+      </c>
+      <c r="N47" s="248" t="s">
+        <v>86</v>
+      </c>
+      <c r="O47" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="L47" s="199" t="s">
-        <v>87</v>
-      </c>
-      <c r="M47" s="199" t="s">
-        <v>87</v>
-      </c>
-      <c r="N47" s="199" t="s">
-        <v>87</v>
-      </c>
-      <c r="O47" s="199" t="s">
-        <v>88</v>
-      </c>
-      <c r="P47" s="199" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q47" s="202"/>
-      <c r="R47" s="205"/>
-      <c r="T47" s="212"/>
-      <c r="U47" s="213"/>
-      <c r="V47" s="214"/>
+      <c r="P47" s="248" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q47" s="246"/>
+      <c r="R47" s="252"/>
+      <c r="T47" s="231"/>
+      <c r="U47" s="232"/>
+      <c r="V47" s="233"/>
       <c r="W47" s="3"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z47" s="111">
         <v>0</v>
@@ -6551,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="AG47" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH47" s="76"/>
       <c r="AI47" s="7"/>
@@ -6587,43 +6588,43 @@
       <c r="Q48" s="85"/>
       <c r="R48" s="86"/>
       <c r="T48" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="U48" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="U48" s="88" t="s">
+      <c r="V48" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="V48" s="89" t="s">
+      <c r="W48" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="W48" s="90" t="s">
+      <c r="X48" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="41" t="s">
+      <c r="Y48" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z48" s="111">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="Y48" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z48" s="111">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="41" t="s">
+      <c r="AB48" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC48" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD48" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="AB48" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC48" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD48" s="93" t="s">
-        <v>50</v>
-      </c>
       <c r="AF48" s="74">
         <v>1</v>
       </c>
       <c r="AG48" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH48" s="76"/>
       <c r="AI48" s="7"/>
@@ -6641,7 +6642,7 @@
       <c r="AU48"/>
     </row>
     <row r="49" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="191">
+      <c r="B49" s="215">
         <v>1</v>
       </c>
       <c r="C49" s="94">
@@ -6651,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G49" s="97">
         <v>5</v>
@@ -6664,49 +6665,49 @@
       </c>
       <c r="I49" s="99"/>
       <c r="J49" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K49" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L49" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M49" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N49" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O49" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P49" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q49" s="104">
         <v>0</v>
       </c>
-      <c r="R49" s="187" t="s">
-        <v>52</v>
+      <c r="R49" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T49" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U49" s="106">
         <v>0</v>
       </c>
       <c r="V49" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W49" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X49" s="109">
         <v>20</v>
       </c>
       <c r="Y49" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z49" s="111">
         <v>0</v>
@@ -6721,14 +6722,14 @@
         <v>1</v>
       </c>
       <c r="AD49" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE49" s="172"/>
       <c r="AF49" s="74">
         <v>1</v>
       </c>
       <c r="AG49" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH49" s="76"/>
       <c r="AI49" s="7"/>
@@ -6746,7 +6747,7 @@
       <c r="AU49"/>
     </row>
     <row r="50" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="192"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="117">
         <v>1</v>
       </c>
@@ -6754,10 +6755,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G50" s="120">
         <v>4</v>
@@ -6767,45 +6768,45 @@
       </c>
       <c r="I50" s="99"/>
       <c r="J50" s="122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K50" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L50" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M50" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N50" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O50" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P50" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q50" s="126">
         <v>0</v>
       </c>
-      <c r="R50" s="187"/>
+      <c r="R50" s="218"/>
       <c r="T50" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U50" s="128">
         <v>0</v>
       </c>
       <c r="V50" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W50" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X50" s="130"/>
       <c r="Y50" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z50" s="111">
         <v>0</v>
@@ -6816,14 +6817,14 @@
       </c>
       <c r="AC50" s="174"/>
       <c r="AD50" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE50" s="172"/>
       <c r="AF50" s="74">
         <v>1</v>
       </c>
       <c r="AG50" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH50" s="76"/>
       <c r="AI50" s="7"/>
@@ -6841,7 +6842,7 @@
       <c r="AU50"/>
     </row>
     <row r="51" spans="2:47" s="43" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="193"/>
+      <c r="B51" s="217"/>
       <c r="C51" s="132">
         <v>1</v>
       </c>
@@ -6850,56 +6851,56 @@
       </c>
       <c r="E51" s="133"/>
       <c r="F51" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H51" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I51" s="99"/>
       <c r="J51" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K51" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L51" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M51" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N51" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O51" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P51" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q51" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R51" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R51" s="218"/>
       <c r="S51" s="1"/>
       <c r="T51" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U51" s="106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V51" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W51" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X51" s="142"/>
       <c r="Y51" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z51" s="111">
         <v>0</v>
@@ -6910,20 +6911,20 @@
       </c>
       <c r="AC51" s="177"/>
       <c r="AD51" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE51" s="178"/>
       <c r="AF51" s="74">
         <v>1</v>
       </c>
       <c r="AG51" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH51" s="76"/>
       <c r="AI51" s="7"/>
     </row>
     <row r="52" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="191">
+      <c r="B52" s="215">
         <v>2</v>
       </c>
       <c r="C52" s="94">
@@ -6933,10 +6934,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F52" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G52" s="97">
         <v>125</v>
@@ -6946,49 +6947,49 @@
       </c>
       <c r="I52" s="99"/>
       <c r="J52" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K52" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L52" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M52" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N52" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O52" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P52" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q52" s="104">
         <v>0</v>
       </c>
-      <c r="R52" s="187" t="s">
-        <v>52</v>
+      <c r="R52" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T52" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U52" s="128">
         <v>0</v>
       </c>
       <c r="V52" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W52" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X52" s="109">
         <v>1</v>
       </c>
       <c r="Y52" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z52" s="111">
         <v>0</v>
@@ -7003,14 +7004,14 @@
         <v>1</v>
       </c>
       <c r="AD52" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE52" s="172"/>
       <c r="AF52" s="74">
         <v>1</v>
       </c>
       <c r="AG52" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH52" s="76"/>
       <c r="AI52" s="7"/>
@@ -7028,7 +7029,7 @@
       <c r="AU52"/>
     </row>
     <row r="53" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="192"/>
+      <c r="B53" s="216"/>
       <c r="C53" s="117">
         <v>2</v>
       </c>
@@ -7036,58 +7037,58 @@
         <v>0</v>
       </c>
       <c r="E53" s="118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H53" s="121">
         <v>0.5</v>
       </c>
       <c r="I53" s="99"/>
       <c r="J53" s="122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K53" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L53" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M53" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N53" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O53" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P53" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q53" s="126">
         <v>0</v>
       </c>
-      <c r="R53" s="187"/>
+      <c r="R53" s="218"/>
       <c r="T53" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U53" s="106">
         <v>0</v>
       </c>
       <c r="V53" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W53" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X53" s="130"/>
       <c r="Y53" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z53" s="111">
         <v>0</v>
@@ -7098,14 +7099,14 @@
       </c>
       <c r="AC53" s="174"/>
       <c r="AD53" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE53" s="172"/>
       <c r="AF53" s="74">
         <v>1</v>
       </c>
       <c r="AG53" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH53" s="76"/>
       <c r="AI53" s="7"/>
@@ -7123,7 +7124,7 @@
       <c r="AU53"/>
     </row>
     <row r="54" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="193"/>
+      <c r="B54" s="217"/>
       <c r="C54" s="132">
         <v>2</v>
       </c>
@@ -7131,10 +7132,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G54" s="135">
         <v>222</v>
@@ -7144,45 +7145,45 @@
       </c>
       <c r="I54" s="99"/>
       <c r="J54" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K54" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L54" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M54" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N54" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O54" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P54" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q54" s="141">
         <v>0</v>
       </c>
-      <c r="R54" s="187"/>
+      <c r="R54" s="218"/>
       <c r="T54" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U54" s="128">
         <v>0</v>
       </c>
       <c r="V54" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W54" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X54" s="142"/>
       <c r="Y54" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z54" s="111">
         <v>0</v>
@@ -7193,14 +7194,14 @@
       </c>
       <c r="AC54" s="177"/>
       <c r="AD54" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE54" s="178"/>
       <c r="AF54" s="74">
         <v>1</v>
       </c>
       <c r="AG54" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH54" s="76"/>
       <c r="AI54" s="7"/>
@@ -7218,7 +7219,7 @@
       <c r="AU54"/>
     </row>
     <row r="55" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="184">
+      <c r="B55" s="219">
         <v>3</v>
       </c>
       <c r="C55" s="94">
@@ -7228,10 +7229,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F55" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G55" s="97">
         <v>169</v>
@@ -7241,49 +7242,49 @@
       </c>
       <c r="I55" s="99"/>
       <c r="J55" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K55" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L55" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M55" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N55" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O55" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P55" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q55" s="104">
         <v>0</v>
       </c>
-      <c r="R55" s="187" t="s">
-        <v>52</v>
+      <c r="R55" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T55" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U55" s="106">
         <v>0</v>
       </c>
       <c r="V55" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W55" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X55" s="109">
         <v>1</v>
       </c>
       <c r="Y55" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z55" s="111">
         <v>0</v>
@@ -7298,14 +7299,14 @@
         <v>1</v>
       </c>
       <c r="AD55" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE55" s="172"/>
       <c r="AF55" s="74">
         <v>1</v>
       </c>
       <c r="AG55" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH55" s="76"/>
       <c r="AI55" s="7"/>
@@ -7323,7 +7324,7 @@
       <c r="AU55"/>
     </row>
     <row r="56" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="185"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="117">
         <v>3</v>
       </c>
@@ -7331,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F56" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G56" s="120">
         <v>220</v>
@@ -7344,45 +7345,45 @@
       </c>
       <c r="I56" s="99"/>
       <c r="J56" s="122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K56" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L56" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M56" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N56" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O56" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P56" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q56" s="126">
         <v>0</v>
       </c>
-      <c r="R56" s="187"/>
+      <c r="R56" s="218"/>
       <c r="T56" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U56" s="128">
         <v>0</v>
       </c>
       <c r="V56" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W56" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X56" s="130"/>
       <c r="Y56" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z56" s="111">
         <v>0</v>
@@ -7393,14 +7394,14 @@
       </c>
       <c r="AC56" s="174"/>
       <c r="AD56" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE56" s="172"/>
       <c r="AF56" s="74">
         <v>1</v>
       </c>
       <c r="AG56" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH56" s="76"/>
       <c r="AI56" s="7"/>
@@ -7418,7 +7419,7 @@
       <c r="AU56"/>
     </row>
     <row r="57" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="186"/>
+      <c r="B57" s="221"/>
       <c r="C57" s="132">
         <v>3</v>
       </c>
@@ -7426,10 +7427,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F57" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G57" s="135">
         <v>165</v>
@@ -7439,45 +7440,45 @@
       </c>
       <c r="I57" s="99"/>
       <c r="J57" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K57" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L57" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M57" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N57" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O57" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P57" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q57" s="141">
         <v>0</v>
       </c>
-      <c r="R57" s="187"/>
+      <c r="R57" s="218"/>
       <c r="T57" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U57" s="106">
         <v>0</v>
       </c>
       <c r="V57" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W57" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X57" s="142"/>
       <c r="Y57" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z57" s="111">
         <v>0</v>
@@ -7488,14 +7489,14 @@
       </c>
       <c r="AC57" s="177"/>
       <c r="AD57" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE57" s="178"/>
       <c r="AF57" s="74">
         <v>1</v>
       </c>
       <c r="AG57" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH57" s="76"/>
       <c r="AI57" s="7"/>
@@ -7513,7 +7514,7 @@
       <c r="AU57"/>
     </row>
     <row r="58" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="184">
+      <c r="B58" s="219">
         <v>4</v>
       </c>
       <c r="C58" s="94">
@@ -7523,10 +7524,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G58" s="97">
         <v>240</v>
@@ -7536,49 +7537,49 @@
       </c>
       <c r="I58" s="99"/>
       <c r="J58" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K58" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L58" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M58" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N58" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O58" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P58" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q58" s="104">
         <v>0</v>
       </c>
-      <c r="R58" s="187" t="s">
-        <v>52</v>
+      <c r="R58" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T58" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U58" s="128">
         <v>0</v>
       </c>
       <c r="V58" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W58" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X58" s="109">
         <v>1</v>
       </c>
       <c r="Y58" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z58" s="111">
         <v>0</v>
@@ -7593,14 +7594,14 @@
         <v>1</v>
       </c>
       <c r="AD58" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE58" s="172"/>
       <c r="AF58" s="74">
         <v>1</v>
       </c>
       <c r="AG58" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH58" s="76"/>
       <c r="AI58" s="7"/>
@@ -7618,7 +7619,7 @@
       <c r="AU58"/>
     </row>
     <row r="59" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="185"/>
+      <c r="B59" s="220"/>
       <c r="C59" s="117">
         <v>4</v>
       </c>
@@ -7626,10 +7627,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F59" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G59" s="120">
         <v>98</v>
@@ -7639,45 +7640,45 @@
       </c>
       <c r="I59" s="99"/>
       <c r="J59" s="122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K59" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L59" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M59" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N59" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O59" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P59" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q59" s="126">
         <v>0</v>
       </c>
-      <c r="R59" s="187"/>
+      <c r="R59" s="218"/>
       <c r="T59" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U59" s="106">
         <v>0</v>
       </c>
       <c r="V59" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W59" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X59" s="130"/>
       <c r="Y59" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z59" s="111">
         <v>0</v>
@@ -7688,14 +7689,14 @@
       </c>
       <c r="AC59" s="174"/>
       <c r="AD59" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE59" s="172"/>
       <c r="AF59" s="74">
         <v>1</v>
       </c>
       <c r="AG59" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH59" s="76"/>
       <c r="AI59" s="7"/>
@@ -7713,7 +7714,7 @@
       <c r="AU59"/>
     </row>
     <row r="60" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="186"/>
+      <c r="B60" s="221"/>
       <c r="C60" s="132">
         <v>4</v>
       </c>
@@ -7722,55 +7723,55 @@
       </c>
       <c r="E60" s="133"/>
       <c r="F60" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H60" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I60" s="99"/>
       <c r="J60" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K60" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L60" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M60" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N60" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O60" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P60" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q60" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R60" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R60" s="218"/>
       <c r="T60" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U60" s="128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V60" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W60" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X60" s="142"/>
       <c r="Y60" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z60" s="111">
         <v>0</v>
@@ -7781,14 +7782,14 @@
       </c>
       <c r="AC60" s="177"/>
       <c r="AD60" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE60" s="178"/>
       <c r="AF60" s="74">
         <v>1</v>
       </c>
       <c r="AG60" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH60" s="76"/>
       <c r="AI60" s="7"/>
@@ -7806,7 +7807,7 @@
       <c r="AU60"/>
     </row>
     <row r="61" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="184">
+      <c r="B61" s="219">
         <v>5</v>
       </c>
       <c r="C61" s="94">
@@ -7816,10 +7817,10 @@
         <v>9</v>
       </c>
       <c r="E61" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F61" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G61" s="97">
         <v>256</v>
@@ -7832,46 +7833,46 @@
         <v>32.5</v>
       </c>
       <c r="K61" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L61" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M61" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N61" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O61" s="102">
         <v>0</v>
       </c>
       <c r="P61" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q61" s="104">
         <v>32.5</v>
       </c>
-      <c r="R61" s="187" t="s">
-        <v>52</v>
+      <c r="R61" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T61" s="175" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U61" s="106">
         <v>32.5</v>
       </c>
       <c r="V61" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W61" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X61" s="109">
         <v>0</v>
       </c>
       <c r="Y61" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z61" s="111">
         <v>0</v>
@@ -7886,14 +7887,14 @@
         <v>1</v>
       </c>
       <c r="AD61" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE61" s="172"/>
       <c r="AF61" s="74">
         <v>1</v>
       </c>
       <c r="AG61" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH61" s="76"/>
       <c r="AI61" s="7"/>
@@ -7911,7 +7912,7 @@
       <c r="AU61"/>
     </row>
     <row r="62" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="185"/>
+      <c r="B62" s="220"/>
       <c r="C62" s="117">
         <v>5</v>
       </c>
@@ -7919,10 +7920,10 @@
         <v>9</v>
       </c>
       <c r="E62" s="118" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F62" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G62" s="120">
         <v>264</v>
@@ -7935,42 +7936,42 @@
         <v>32.5</v>
       </c>
       <c r="K62" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L62" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M62" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N62" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O62" s="124">
         <v>0</v>
       </c>
       <c r="P62" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q62" s="126">
         <v>32.5</v>
       </c>
-      <c r="R62" s="187"/>
+      <c r="R62" s="218"/>
       <c r="T62" s="173" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U62" s="128">
         <v>32.5</v>
       </c>
       <c r="V62" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W62" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X62" s="130"/>
       <c r="Y62" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z62" s="111">
         <v>0</v>
@@ -7981,14 +7982,14 @@
       </c>
       <c r="AC62" s="174"/>
       <c r="AD62" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE62" s="172"/>
       <c r="AF62" s="74">
         <v>1</v>
       </c>
       <c r="AG62" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH62" s="76"/>
       <c r="AI62" s="7"/>
@@ -8006,7 +8007,7 @@
       <c r="AU62"/>
     </row>
     <row r="63" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="186"/>
+      <c r="B63" s="221"/>
       <c r="C63" s="132">
         <v>5</v>
       </c>
@@ -8015,55 +8016,55 @@
       </c>
       <c r="E63" s="133"/>
       <c r="F63" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G63" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H63" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I63" s="99"/>
       <c r="J63" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K63" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L63" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M63" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N63" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O63" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P63" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q63" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R63" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R63" s="218"/>
       <c r="T63" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U63" s="106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V63" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W63" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X63" s="142"/>
       <c r="Y63" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z63" s="111">
         <v>0</v>
@@ -8074,14 +8075,14 @@
       </c>
       <c r="AC63" s="177"/>
       <c r="AD63" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE63" s="178"/>
       <c r="AF63" s="74">
         <v>1</v>
       </c>
       <c r="AG63" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH63" s="76"/>
       <c r="AI63" s="7"/>
@@ -8099,7 +8100,7 @@
       <c r="AU63"/>
     </row>
     <row r="64" spans="2:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="184">
+      <c r="B64" s="219">
         <v>6</v>
       </c>
       <c r="C64" s="94">
@@ -8109,10 +8110,10 @@
         <v>11</v>
       </c>
       <c r="E64" s="95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F64" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G64" s="97">
         <v>340</v>
@@ -8125,46 +8126,46 @@
         <v>24</v>
       </c>
       <c r="K64" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L64" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M64" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N64" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O64" s="102">
         <v>0</v>
       </c>
       <c r="P64" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q64" s="104">
         <v>24</v>
       </c>
-      <c r="R64" s="187" t="s">
-        <v>52</v>
+      <c r="R64" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T64" s="173" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U64" s="128">
         <v>24</v>
       </c>
       <c r="V64" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W64" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X64" s="109">
         <v>0</v>
       </c>
       <c r="Y64" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z64" s="111">
         <v>0</v>
@@ -8179,14 +8180,14 @@
         <v>1</v>
       </c>
       <c r="AD64" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE64" s="172"/>
       <c r="AF64" s="74">
         <v>1</v>
       </c>
       <c r="AG64" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH64" s="76"/>
       <c r="AI64" s="7"/>
@@ -8204,7 +8205,7 @@
       <c r="AU64"/>
     </row>
     <row r="65" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="185"/>
+      <c r="B65" s="220"/>
       <c r="C65" s="117">
         <v>6</v>
       </c>
@@ -8212,10 +8213,10 @@
         <v>11</v>
       </c>
       <c r="E65" s="118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F65" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G65" s="120">
         <v>303</v>
@@ -8228,42 +8229,42 @@
         <v>24</v>
       </c>
       <c r="K65" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L65" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M65" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N65" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O65" s="124">
         <v>0</v>
       </c>
       <c r="P65" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q65" s="126">
         <v>24</v>
       </c>
-      <c r="R65" s="187"/>
+      <c r="R65" s="218"/>
       <c r="T65" s="175" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U65" s="106">
         <v>24</v>
       </c>
       <c r="V65" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W65" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X65" s="130"/>
       <c r="Y65" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z65" s="111">
         <v>0</v>
@@ -8274,14 +8275,14 @@
       </c>
       <c r="AC65" s="174"/>
       <c r="AD65" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE65" s="172"/>
       <c r="AF65" s="74">
         <v>1</v>
       </c>
       <c r="AG65" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH65" s="76"/>
       <c r="AI65" s="7"/>
@@ -8299,7 +8300,7 @@
       <c r="AU65"/>
     </row>
     <row r="66" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="186"/>
+      <c r="B66" s="221"/>
       <c r="C66" s="132">
         <v>6</v>
       </c>
@@ -8308,55 +8309,55 @@
       </c>
       <c r="E66" s="133"/>
       <c r="F66" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H66" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I66" s="99"/>
       <c r="J66" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K66" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L66" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M66" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N66" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O66" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P66" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q66" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R66" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R66" s="218"/>
       <c r="T66" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U66" s="128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V66" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W66" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X66" s="142"/>
       <c r="Y66" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z66" s="111">
         <v>0</v>
@@ -8367,14 +8368,14 @@
       </c>
       <c r="AC66" s="177"/>
       <c r="AD66" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE66" s="178"/>
       <c r="AF66" s="74">
         <v>1</v>
       </c>
       <c r="AG66" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH66" s="76"/>
       <c r="AI66" s="7"/>
@@ -8414,7 +8415,7 @@
       <c r="U67" s="183"/>
       <c r="V67" s="183"/>
       <c r="W67" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
@@ -8448,17 +8449,17 @@
     <row r="68" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="183"/>
       <c r="B68" s="163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" s="164"/>
       <c r="D68" s="164"/>
       <c r="E68" s="46"/>
       <c r="F68" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G68" s="46"/>
       <c r="H68" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I68" s="48"/>
       <c r="J68" s="49"/>
@@ -8471,15 +8472,15 @@
       <c r="Q68" s="50"/>
       <c r="R68" s="50"/>
       <c r="S68" s="43"/>
-      <c r="T68" s="194"/>
-      <c r="U68" s="195"/>
-      <c r="V68" s="196"/>
+      <c r="T68" s="209"/>
+      <c r="U68" s="210"/>
+      <c r="V68" s="211"/>
       <c r="W68" s="165">
         <v>6</v>
       </c>
       <c r="X68" s="4"/>
       <c r="Y68" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z68" s="111">
         <v>0</v>
@@ -8492,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="AG68" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH68" s="56">
         <v>3</v>
@@ -8514,59 +8515,59 @@
     <row r="69" spans="1:47" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="183"/>
       <c r="B69" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" s="61"/>
       <c r="D69" s="61"/>
       <c r="E69" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="63" t="s">
+      <c r="G69" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G69" s="63" t="s">
+      <c r="H69" s="64" t="s">
         <v>35</v>
-      </c>
-      <c r="H69" s="64" t="s">
-        <v>36</v>
       </c>
       <c r="I69" s="65"/>
       <c r="J69" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="L69" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="M69" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="N69" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="O69" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="P69" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q69" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="K69" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="L69" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="M69" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="N69" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="O69" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="P69" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q69" s="68" t="s">
+      <c r="R69" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="R69" s="69" t="s">
+      <c r="T69" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="T69" s="188" t="s">
-        <v>40</v>
-      </c>
-      <c r="U69" s="189"/>
-      <c r="V69" s="190"/>
+      <c r="U69" s="213"/>
+      <c r="V69" s="214"/>
       <c r="W69" s="3"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z69" s="111">
         <v>0</v>
@@ -8579,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="AG69" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH69" s="76"/>
       <c r="AI69" s="7"/>
@@ -8616,43 +8617,43 @@
       <c r="Q70" s="85"/>
       <c r="R70" s="86"/>
       <c r="T70" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="U70" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="U70" s="88" t="s">
+      <c r="V70" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="V70" s="89" t="s">
+      <c r="W70" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="W70" s="90" t="s">
+      <c r="X70" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="X70" s="41" t="s">
+      <c r="Y70" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z70" s="111">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="Y70" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z70" s="111">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="41" t="s">
+      <c r="AB70" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC70" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD70" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="AB70" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC70" s="93" t="s">
+      <c r="AF70" s="74">
+        <v>1</v>
+      </c>
+      <c r="AG70" s="131" t="s">
         <v>103</v>
-      </c>
-      <c r="AD70" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF70" s="74">
-        <v>1</v>
-      </c>
-      <c r="AG70" s="131" t="s">
-        <v>104</v>
       </c>
       <c r="AH70" s="76"/>
       <c r="AI70" s="7"/>
@@ -8671,7 +8672,7 @@
     </row>
     <row r="71" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="183"/>
-      <c r="B71" s="191">
+      <c r="B71" s="215">
         <v>1</v>
       </c>
       <c r="C71" s="94">
@@ -8681,10 +8682,10 @@
         <v>0</v>
       </c>
       <c r="E71" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F71" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G71" s="97">
         <v>94</v>
@@ -8694,49 +8695,49 @@
       </c>
       <c r="I71" s="99"/>
       <c r="J71" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K71" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L71" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M71" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N71" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O71" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P71" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q71" s="104">
         <v>0</v>
       </c>
-      <c r="R71" s="187" t="s">
-        <v>52</v>
+      <c r="R71" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T71" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U71" s="106">
         <v>0</v>
       </c>
       <c r="V71" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W71" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X71" s="109">
         <v>4</v>
       </c>
       <c r="Y71" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z71" s="111">
         <v>0.5</v>
@@ -8751,14 +8752,14 @@
         <v>1</v>
       </c>
       <c r="AD71" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE71" s="172"/>
       <c r="AF71" s="74">
         <v>1</v>
       </c>
       <c r="AG71" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH71" s="76"/>
       <c r="AI71" s="7"/>
@@ -8777,7 +8778,7 @@
     </row>
     <row r="72" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="183"/>
-      <c r="B72" s="192"/>
+      <c r="B72" s="216"/>
       <c r="C72" s="117">
         <v>1</v>
       </c>
@@ -8785,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="E72" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F72" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G72" s="120">
         <v>119</v>
@@ -8798,45 +8799,45 @@
       </c>
       <c r="I72" s="99"/>
       <c r="J72" s="122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K72" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L72" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M72" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N72" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O72" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P72" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q72" s="126">
         <v>0</v>
       </c>
-      <c r="R72" s="187"/>
+      <c r="R72" s="218"/>
       <c r="T72" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U72" s="128">
         <v>0</v>
       </c>
       <c r="V72" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W72" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X72" s="130"/>
       <c r="Y72" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z72" s="111">
         <v>0.5</v>
@@ -8847,14 +8848,14 @@
       </c>
       <c r="AC72" s="174"/>
       <c r="AD72" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE72" s="172"/>
       <c r="AF72" s="74">
         <v>1</v>
       </c>
       <c r="AG72" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH72" s="76"/>
       <c r="AI72" s="7"/>
@@ -8873,7 +8874,7 @@
     </row>
     <row r="73" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="183"/>
-      <c r="B73" s="193"/>
+      <c r="B73" s="217"/>
       <c r="C73" s="132">
         <v>1</v>
       </c>
@@ -8881,10 +8882,10 @@
         <v>0</v>
       </c>
       <c r="E73" s="133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F73" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G73" s="135">
         <v>36</v>
@@ -8894,45 +8895,45 @@
       </c>
       <c r="I73" s="99"/>
       <c r="J73" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K73" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L73" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M73" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N73" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O73" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P73" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q73" s="141">
         <v>0</v>
       </c>
-      <c r="R73" s="187"/>
+      <c r="R73" s="218"/>
       <c r="T73" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U73" s="106">
         <v>0</v>
       </c>
       <c r="V73" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W73" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X73" s="142"/>
       <c r="Y73" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z73" s="111">
         <v>0.5</v>
@@ -8943,14 +8944,14 @@
       </c>
       <c r="AC73" s="177"/>
       <c r="AD73" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE73" s="178"/>
       <c r="AF73" s="74">
         <v>1</v>
       </c>
       <c r="AG73" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH73" s="76"/>
       <c r="AI73" s="7"/>
@@ -8969,7 +8970,7 @@
     </row>
     <row r="74" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="183"/>
-      <c r="B74" s="191">
+      <c r="B74" s="215">
         <v>2</v>
       </c>
       <c r="C74" s="94">
@@ -8979,10 +8980,10 @@
         <v>0</v>
       </c>
       <c r="E74" s="95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F74" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G74" s="97">
         <v>76</v>
@@ -8992,49 +8993,49 @@
       </c>
       <c r="I74" s="99"/>
       <c r="J74" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K74" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L74" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M74" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N74" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O74" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P74" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q74" s="104">
         <v>0</v>
       </c>
-      <c r="R74" s="187" t="s">
-        <v>52</v>
+      <c r="R74" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T74" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U74" s="128">
         <v>0</v>
       </c>
       <c r="V74" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W74" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X74" s="109">
         <v>1.5</v>
       </c>
       <c r="Y74" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z74" s="111">
         <v>0.5</v>
@@ -9049,14 +9050,14 @@
         <v>1</v>
       </c>
       <c r="AD74" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE74" s="172"/>
       <c r="AF74" s="74">
         <v>1</v>
       </c>
       <c r="AG74" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH74" s="76"/>
       <c r="AI74" s="7"/>
@@ -9075,7 +9076,7 @@
     </row>
     <row r="75" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="183"/>
-      <c r="B75" s="192"/>
+      <c r="B75" s="216"/>
       <c r="C75" s="117">
         <v>2</v>
       </c>
@@ -9083,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="E75" s="118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F75" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G75" s="120">
         <v>197</v>
@@ -9096,45 +9097,45 @@
       </c>
       <c r="I75" s="99"/>
       <c r="J75" s="122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K75" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L75" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M75" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N75" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O75" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P75" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q75" s="126">
         <v>0</v>
       </c>
-      <c r="R75" s="187"/>
+      <c r="R75" s="218"/>
       <c r="T75" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U75" s="106">
         <v>0</v>
       </c>
       <c r="V75" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W75" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X75" s="130"/>
       <c r="Y75" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z75" s="111">
         <v>0.5</v>
@@ -9145,14 +9146,14 @@
       </c>
       <c r="AC75" s="174"/>
       <c r="AD75" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE75" s="172"/>
       <c r="AF75" s="74">
         <v>1</v>
       </c>
       <c r="AG75" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH75" s="76"/>
       <c r="AI75" s="7"/>
@@ -9171,7 +9172,7 @@
     </row>
     <row r="76" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="183"/>
-      <c r="B76" s="193"/>
+      <c r="B76" s="217"/>
       <c r="C76" s="132">
         <v>2</v>
       </c>
@@ -9180,55 +9181,55 @@
       </c>
       <c r="E76" s="133"/>
       <c r="F76" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G76" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H76" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I76" s="99"/>
       <c r="J76" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K76" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L76" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M76" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N76" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O76" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P76" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q76" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R76" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R76" s="218"/>
       <c r="T76" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U76" s="128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V76" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W76" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X76" s="142"/>
       <c r="Y76" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z76" s="111">
         <v>0.5</v>
@@ -9239,14 +9240,14 @@
       </c>
       <c r="AC76" s="177"/>
       <c r="AD76" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE76" s="178"/>
       <c r="AF76" s="74">
         <v>1</v>
       </c>
       <c r="AG76" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH76" s="76"/>
       <c r="AI76" s="7"/>
@@ -9265,7 +9266,7 @@
     </row>
     <row r="77" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="183"/>
-      <c r="B77" s="184">
+      <c r="B77" s="219">
         <v>3</v>
       </c>
       <c r="C77" s="94">
@@ -9275,62 +9276,62 @@
         <v>0</v>
       </c>
       <c r="E77" s="95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F77" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G77" s="97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H77" s="98">
         <v>0</v>
       </c>
       <c r="I77" s="99"/>
       <c r="J77" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K77" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L77" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M77" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N77" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O77" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P77" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q77" s="104">
         <v>0</v>
       </c>
-      <c r="R77" s="187" t="s">
-        <v>52</v>
+      <c r="R77" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T77" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U77" s="106">
         <v>0</v>
       </c>
       <c r="V77" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W77" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X77" s="109">
         <v>0</v>
       </c>
       <c r="Y77" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z77" s="111">
         <v>0.5</v>
@@ -9345,14 +9346,14 @@
         <v>1</v>
       </c>
       <c r="AD77" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE77" s="172"/>
       <c r="AF77" s="74">
         <v>1</v>
       </c>
       <c r="AG77" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH77" s="76"/>
       <c r="AI77" s="7"/>
@@ -9371,7 +9372,7 @@
     </row>
     <row r="78" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="183"/>
-      <c r="B78" s="185"/>
+      <c r="B78" s="220"/>
       <c r="C78" s="117">
         <v>3</v>
       </c>
@@ -9379,58 +9380,58 @@
         <v>0</v>
       </c>
       <c r="E78" s="118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F78" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G78" s="120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H78" s="121">
         <v>0</v>
       </c>
       <c r="I78" s="99"/>
       <c r="J78" s="122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K78" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L78" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M78" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N78" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O78" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P78" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q78" s="126">
         <v>0</v>
       </c>
-      <c r="R78" s="187"/>
+      <c r="R78" s="218"/>
       <c r="T78" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U78" s="128">
         <v>0</v>
       </c>
       <c r="V78" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W78" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X78" s="130"/>
       <c r="Y78" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z78" s="111">
         <v>0.5</v>
@@ -9441,14 +9442,14 @@
       </c>
       <c r="AC78" s="174"/>
       <c r="AD78" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE78" s="172"/>
       <c r="AF78" s="74">
         <v>1</v>
       </c>
       <c r="AG78" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH78" s="76"/>
       <c r="AI78" s="7"/>
@@ -9467,7 +9468,7 @@
     </row>
     <row r="79" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="183"/>
-      <c r="B79" s="186"/>
+      <c r="B79" s="221"/>
       <c r="C79" s="132">
         <v>3</v>
       </c>
@@ -9475,58 +9476,58 @@
         <v>0</v>
       </c>
       <c r="E79" s="133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F79" s="134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G79" s="135" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H79" s="136">
         <v>0</v>
       </c>
       <c r="I79" s="99"/>
       <c r="J79" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K79" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L79" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M79" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N79" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O79" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P79" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q79" s="141">
         <v>0</v>
       </c>
-      <c r="R79" s="187"/>
+      <c r="R79" s="218"/>
       <c r="T79" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U79" s="106">
         <v>0</v>
       </c>
       <c r="V79" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W79" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X79" s="142"/>
       <c r="Y79" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z79" s="111">
         <v>0.5</v>
@@ -9537,14 +9538,14 @@
       </c>
       <c r="AC79" s="177"/>
       <c r="AD79" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE79" s="178"/>
       <c r="AF79" s="74">
         <v>1</v>
       </c>
       <c r="AG79" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH79" s="76"/>
       <c r="AI79" s="7"/>
@@ -9563,7 +9564,7 @@
     </row>
     <row r="80" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="183"/>
-      <c r="B80" s="184">
+      <c r="B80" s="219">
         <v>4</v>
       </c>
       <c r="C80" s="94">
@@ -9573,62 +9574,62 @@
         <v>0</v>
       </c>
       <c r="E80" s="95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F80" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G80" s="97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H80" s="98">
         <v>0.5</v>
       </c>
       <c r="I80" s="99"/>
       <c r="J80" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K80" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L80" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M80" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N80" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O80" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P80" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q80" s="104">
         <v>0</v>
       </c>
-      <c r="R80" s="187" t="s">
-        <v>52</v>
+      <c r="R80" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T80" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U80" s="128">
         <v>0</v>
       </c>
       <c r="V80" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W80" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X80" s="109">
         <v>1</v>
       </c>
       <c r="Y80" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z80" s="111">
         <v>0.5</v>
@@ -9643,14 +9644,14 @@
         <v>1</v>
       </c>
       <c r="AD80" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE80" s="172"/>
       <c r="AF80" s="74">
         <v>1</v>
       </c>
       <c r="AG80" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH80" s="76"/>
       <c r="AI80" s="7"/>
@@ -9669,7 +9670,7 @@
     </row>
     <row r="81" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="183"/>
-      <c r="B81" s="185"/>
+      <c r="B81" s="220"/>
       <c r="C81" s="117">
         <v>4</v>
       </c>
@@ -9677,58 +9678,58 @@
         <v>0</v>
       </c>
       <c r="E81" s="118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F81" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G81" s="120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H81" s="121">
         <v>0.5</v>
       </c>
       <c r="I81" s="99"/>
       <c r="J81" s="122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K81" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L81" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M81" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N81" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O81" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P81" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q81" s="126">
         <v>0</v>
       </c>
-      <c r="R81" s="187"/>
+      <c r="R81" s="218"/>
       <c r="T81" s="175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U81" s="106">
         <v>0</v>
       </c>
       <c r="V81" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W81" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X81" s="130"/>
       <c r="Y81" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z81" s="111">
         <v>0.5</v>
@@ -9739,14 +9740,14 @@
       </c>
       <c r="AC81" s="174"/>
       <c r="AD81" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE81" s="172"/>
       <c r="AF81" s="74">
         <v>1</v>
       </c>
       <c r="AG81" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH81" s="76"/>
       <c r="AI81" s="7"/>
@@ -9765,7 +9766,7 @@
     </row>
     <row r="82" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="183"/>
-      <c r="B82" s="186"/>
+      <c r="B82" s="221"/>
       <c r="C82" s="132">
         <v>4</v>
       </c>
@@ -9774,55 +9775,55 @@
       </c>
       <c r="E82" s="133"/>
       <c r="F82" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G82" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H82" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I82" s="99"/>
       <c r="J82" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K82" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L82" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M82" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N82" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O82" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P82" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q82" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R82" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R82" s="218"/>
       <c r="T82" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U82" s="128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V82" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W82" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X82" s="142"/>
       <c r="Y82" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z82" s="111">
         <v>0.5</v>
@@ -9833,14 +9834,14 @@
       </c>
       <c r="AC82" s="177"/>
       <c r="AD82" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE82" s="178"/>
       <c r="AF82" s="74">
         <v>1</v>
       </c>
       <c r="AG82" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH82" s="76"/>
       <c r="AI82" s="7"/>
@@ -9859,7 +9860,7 @@
     </row>
     <row r="83" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="183"/>
-      <c r="B83" s="184">
+      <c r="B83" s="219">
         <v>5</v>
       </c>
       <c r="C83" s="94">
@@ -9869,10 +9870,10 @@
         <v>9</v>
       </c>
       <c r="E83" s="95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F83" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G83" s="97">
         <v>296</v>
@@ -9885,31 +9886,31 @@
         <v>32.5</v>
       </c>
       <c r="K83" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L83" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M83" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N83" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O83" s="102">
         <v>0.5</v>
       </c>
       <c r="P83" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q83" s="104">
         <v>33</v>
       </c>
-      <c r="R83" s="187" t="s">
-        <v>52</v>
+      <c r="R83" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T83" s="175" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U83" s="106">
         <v>33</v>
@@ -9918,13 +9919,13 @@
         <v>32.5</v>
       </c>
       <c r="W83" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X83" s="109">
         <v>0</v>
       </c>
       <c r="Y83" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z83" s="111">
         <v>0.5</v>
@@ -9939,14 +9940,14 @@
         <v>1</v>
       </c>
       <c r="AD83" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE83" s="172"/>
       <c r="AF83" s="74">
         <v>1</v>
       </c>
       <c r="AG83" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH83" s="76"/>
       <c r="AI83" s="7"/>
@@ -9965,7 +9966,7 @@
     </row>
     <row r="84" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="183"/>
-      <c r="B84" s="185"/>
+      <c r="B84" s="220"/>
       <c r="C84" s="117">
         <v>5</v>
       </c>
@@ -9973,10 +9974,10 @@
         <v>9</v>
       </c>
       <c r="E84" s="118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F84" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G84" s="120">
         <v>0</v>
@@ -9989,29 +9990,29 @@
         <v>32.5</v>
       </c>
       <c r="K84" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L84" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M84" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N84" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O84" s="124">
         <v>0.5</v>
       </c>
       <c r="P84" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q84" s="126">
         <v>33</v>
       </c>
-      <c r="R84" s="187"/>
+      <c r="R84" s="218"/>
       <c r="T84" s="173" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U84" s="128">
         <v>33</v>
@@ -10020,11 +10021,11 @@
         <v>32.5</v>
       </c>
       <c r="W84" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X84" s="130"/>
       <c r="Y84" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z84" s="111">
         <v>0.5</v>
@@ -10035,14 +10036,14 @@
       </c>
       <c r="AC84" s="174"/>
       <c r="AD84" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE84" s="172"/>
       <c r="AF84" s="74">
         <v>1</v>
       </c>
       <c r="AG84" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH84" s="76"/>
       <c r="AI84" s="7"/>
@@ -10061,7 +10062,7 @@
     </row>
     <row r="85" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="183"/>
-      <c r="B85" s="186"/>
+      <c r="B85" s="221"/>
       <c r="C85" s="132">
         <v>5</v>
       </c>
@@ -10069,45 +10070,45 @@
         <v>9</v>
       </c>
       <c r="E85" s="133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F85" s="134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G85" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H85" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I85" s="99"/>
       <c r="J85" s="137">
         <v>32.5</v>
       </c>
       <c r="K85" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L85" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M85" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N85" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O85" s="139">
         <v>0</v>
       </c>
       <c r="P85" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q85" s="141">
         <v>32.5</v>
       </c>
-      <c r="R85" s="187"/>
+      <c r="R85" s="218"/>
       <c r="T85" s="175" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U85" s="106">
         <v>32.5</v>
@@ -10116,11 +10117,11 @@
         <v>32.5</v>
       </c>
       <c r="W85" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X85" s="142"/>
       <c r="Y85" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z85" s="111">
         <v>0.5</v>
@@ -10131,14 +10132,14 @@
       </c>
       <c r="AC85" s="177"/>
       <c r="AD85" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE85" s="178"/>
       <c r="AF85" s="74">
         <v>1</v>
       </c>
       <c r="AG85" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH85" s="76"/>
       <c r="AI85" s="7"/>
@@ -10157,7 +10158,7 @@
     </row>
     <row r="86" spans="1:47" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="183"/>
-      <c r="B86" s="184">
+      <c r="B86" s="219">
         <v>6</v>
       </c>
       <c r="C86" s="94">
@@ -10167,10 +10168,10 @@
         <v>11</v>
       </c>
       <c r="E86" s="95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F86" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G86" s="97">
         <v>215</v>
@@ -10183,46 +10184,46 @@
         <v>24</v>
       </c>
       <c r="K86" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L86" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M86" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N86" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O86" s="102">
         <v>0</v>
       </c>
       <c r="P86" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q86" s="104">
         <v>24</v>
       </c>
-      <c r="R86" s="187" t="s">
-        <v>52</v>
+      <c r="R86" s="218" t="s">
+        <v>51</v>
       </c>
       <c r="T86" s="173" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U86" s="128">
         <v>24</v>
       </c>
       <c r="V86" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W86" s="108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X86" s="109">
         <v>0.5</v>
       </c>
       <c r="Y86" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z86" s="111">
         <v>0</v>
@@ -10237,14 +10238,14 @@
         <v>1</v>
       </c>
       <c r="AD86" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE86" s="172"/>
       <c r="AF86" s="74">
         <v>1</v>
       </c>
       <c r="AG86" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH86" s="76"/>
       <c r="AI86" s="7"/>
@@ -10263,7 +10264,7 @@
     </row>
     <row r="87" spans="1:47" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="183"/>
-      <c r="B87" s="185"/>
+      <c r="B87" s="220"/>
       <c r="C87" s="117">
         <v>6</v>
       </c>
@@ -10271,10 +10272,10 @@
         <v>11</v>
       </c>
       <c r="E87" s="118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F87" s="119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G87" s="120">
         <v>134</v>
@@ -10287,43 +10288,43 @@
         <v>24</v>
       </c>
       <c r="K87" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L87" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M87" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N87" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O87" s="124">
         <v>0</v>
       </c>
       <c r="P87" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q87" s="126">
         <v>24</v>
       </c>
-      <c r="R87" s="187"/>
+      <c r="R87" s="218"/>
       <c r="S87" s="1"/>
       <c r="T87" s="175" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U87" s="106">
         <v>24</v>
       </c>
       <c r="V87" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W87" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X87" s="130"/>
       <c r="Y87" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z87" s="111">
         <v>0</v>
@@ -10334,14 +10335,14 @@
       </c>
       <c r="AC87" s="174"/>
       <c r="AD87" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE87" s="172"/>
       <c r="AF87" s="74">
         <v>1</v>
       </c>
       <c r="AG87" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH87" s="76"/>
       <c r="AI87"/>
@@ -10360,7 +10361,7 @@
     </row>
     <row r="88" spans="1:47" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="183"/>
-      <c r="B88" s="186"/>
+      <c r="B88" s="221"/>
       <c r="C88" s="132">
         <v>6</v>
       </c>
@@ -10369,56 +10370,56 @@
       </c>
       <c r="E88" s="133"/>
       <c r="F88" s="134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G88" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H88" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I88" s="99"/>
       <c r="J88" s="137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K88" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L88" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M88" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N88" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O88" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P88" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q88" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="R88" s="187"/>
+        <v>86</v>
+      </c>
+      <c r="R88" s="218"/>
       <c r="S88" s="1"/>
       <c r="T88" s="173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U88" s="128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V88" s="129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W88" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X88" s="142"/>
       <c r="Y88" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z88" s="111">
         <v>0</v>
@@ -10429,14 +10430,14 @@
       </c>
       <c r="AC88" s="177"/>
       <c r="AD88" s="115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE88" s="178"/>
       <c r="AF88" s="74">
         <v>1</v>
       </c>
       <c r="AG88" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH88" s="76"/>
       <c r="AI88"/>
@@ -10455,6 +10456,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="R80:R82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="R83:R85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="R86:R88"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="R77:R79"/>
+    <mergeCell ref="T68:V68"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="R58:R60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="R64:R66"/>
+    <mergeCell ref="T69:V69"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="R71:R73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="R74:R76"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="R55:R57"/>
+    <mergeCell ref="T44:V47"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="R36:R38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="R21:R23"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="I13:R13"/>
     <mergeCell ref="I2:R2"/>
@@ -10471,66 +10532,6 @@
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="R36:R38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="T44:V47"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="R55:R57"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="R77:R79"/>
-    <mergeCell ref="T68:V68"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="R58:R60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="R64:R66"/>
-    <mergeCell ref="T69:V69"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="R71:R73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="R74:R76"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="R80:R82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="R83:R85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="R86:R88"/>
   </mergeCells>
   <conditionalFormatting sqref="T18:V41 T49:V66 T71:V88">
     <cfRule type="expression" dxfId="3" priority="37">
@@ -10553,34 +10554,34 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R18:R41 R49:R66 R71:R88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R18:R41 R49:R66 R71:R88" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>yesno</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F15 F43 F68">
+    <dataValidation type="list" allowBlank="1" sqref="F15 F43 F68" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E49:E66 E71:E88 E18:E41">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E49:E66 E71:E88 E18:E41" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B68 B15 B43">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B68 B15 B43" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I43:I46 H43 H68:I68 I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I43:I46 H43 H68:I68 I15" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9 I9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9 I9" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8 I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8 I8" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Categories</formula1>
     </dataValidation>
   </dataValidations>
